--- a/shared_data/paper_a_descriptive_statistics.xlsx
+++ b/shared_data/paper_a_descriptive_statistics.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="speech" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interview" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="support" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oppose" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,47 +497,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sentence_length</t>
+          <t>positive_affect</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>170.51</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>18.44</t>
         </is>
       </c>
     </row>
@@ -547,47 +547,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>word_length</t>
+          <t>negative_affect</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>279.24</t>
         </is>
       </c>
     </row>
@@ -597,16 +597,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sentence_complexity</t>
+          <t>epistemic_certainty</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -615,29 +615,29 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>passive_voice_d</t>
+          <t>epistemic_doubt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -665,29 +665,29 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>37.90</t>
         </is>
       </c>
     </row>
@@ -697,47 +697,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lexical_d</t>
+          <t>polarity_pro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>35.12</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>22.35</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nominalization_d</t>
+          <t>polarity_con</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -765,229 +765,29 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>personal_pronoun_d</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19</v>
-      </c>
-      <c r="H8" t="n">
-        <v>19</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>interjection_d</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>66.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>modal_verb_d</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>discourse_marker_d</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>6.56</t>
+          <t>150.05</t>
         </is>
       </c>
     </row>
@@ -1002,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,47 +873,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sentence_length</t>
+          <t>positive_affect</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>203.46</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>68.39</t>
         </is>
       </c>
     </row>
@@ -1123,47 +923,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>word_length</t>
+          <t>negative_affect</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>40.88</t>
         </is>
       </c>
     </row>
@@ -1173,16 +973,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sentence_complexity</t>
+          <t>epistemic_certainty</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1191,29 +991,29 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>4.55</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1023,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>passive_voice_d</t>
+          <t>epistemic_doubt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1241,29 +1041,29 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>27.04</t>
         </is>
       </c>
     </row>
@@ -1273,47 +1073,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lexical_d</t>
+          <t>polarity_pro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>78.58</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1123,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nominalization_d</t>
+          <t>polarity_con</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1341,229 +1141,29 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>personal_pronoun_d</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21</v>
-      </c>
-      <c r="H8" t="n">
-        <v>21</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>interjection_d</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>17.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>modal_verb_d</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>discourse_marker_d</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>5.33</t>
+          <t>10.26</t>
         </is>
       </c>
     </row>
